--- a/1255/1255-testcase.xlsx
+++ b/1255/1255-testcase.xlsx
@@ -610,7 +610,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -864,9 +864,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="K2" location="Sheet2!A1" display="hinh1"/>
-    <hyperlink ref="K3" location="Sheet2!A1" display="hinh2"/>
+    <hyperlink ref="K3" location="Sheet2!A27" display="hinh2"/>
     <hyperlink ref="K4" location="Sheet2!A1" display="hinh1"/>
-    <hyperlink ref="K5" location="Sheet2!A1" display="hinh3"/>
+    <hyperlink ref="K5" location="Sheet2!A34" display="hinh3"/>
     <hyperlink ref="K6" location="Sheet2!A1" display="hinh1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -877,9 +877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
-    </sheetView>
+    <sheetView topLeftCell="A22" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
